--- a/meta/program/BlancoRestGeneratorKtTelegramFieldStructure.xlsx
+++ b/meta/program/BlancoRestGeneratorKtTelegramFieldStructure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70509B46-C00A-944F-9723-BCA2E4C93AB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D0681B-CE5D-7A4E-B828-E669F92204DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5320" yWindow="4300" windowWidth="28800" windowHeight="17540" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="83">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -466,6 +466,20 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>override</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>override 修飾子を付与します</t>
+    <rPh sb="9" eb="12">
+      <t xml:space="preserve">シュウショクシ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">フヨスル </t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1014,12 +1028,36 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1031,30 +1069,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1447,7 +1461,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1491,7 +1505,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1516,10 +1530,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1692,7 +1706,7 @@
       <c r="F18"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="54" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="58" t="s">
@@ -1704,7 +1718,7 @@
       <c r="F19"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="57"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="58"/>
       <c r="C20" s="59"/>
       <c r="D20" s="59"/>
@@ -1745,29 +1759,29 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="61" t="s">
+      <c r="D25" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="61" t="s">
+      <c r="E25" s="57" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="28"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="57"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
       <c r="F26" s="29"/>
     </row>
     <row r="27" spans="1:7">
@@ -1834,10 +1848,10 @@
       <c r="D30" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="55" t="s">
+      <c r="E30" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="F30" s="56"/>
+      <c r="F30" s="64"/>
       <c r="G30"/>
     </row>
     <row r="31" spans="1:7" ht="29" customHeight="1">
@@ -1852,10 +1866,10 @@
         <v>24</v>
       </c>
       <c r="D31" s="34"/>
-      <c r="E31" s="51" t="s">
+      <c r="E31" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="52"/>
+      <c r="F31" s="56"/>
     </row>
     <row r="32" spans="1:7" ht="29" customHeight="1">
       <c r="A32" s="32">
@@ -1869,10 +1883,10 @@
         <v>32</v>
       </c>
       <c r="D32" s="34"/>
-      <c r="E32" s="51" t="s">
+      <c r="E32" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="F32" s="52"/>
+      <c r="F32" s="56"/>
     </row>
     <row r="33" spans="1:7" s="49" customFormat="1" ht="45">
       <c r="A33" s="32">
@@ -1888,10 +1902,10 @@
       <c r="D33" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="53" t="s">
+      <c r="E33" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="F33" s="54"/>
+      <c r="F33" s="62"/>
       <c r="G33"/>
     </row>
     <row r="34" spans="1:7" ht="29" customHeight="1">
@@ -1906,10 +1920,10 @@
         <v>24</v>
       </c>
       <c r="D34" s="34"/>
-      <c r="E34" s="51" t="s">
+      <c r="E34" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="F34" s="52"/>
+      <c r="F34" s="56"/>
     </row>
     <row r="35" spans="1:7" ht="29" customHeight="1">
       <c r="A35" s="32">
@@ -1923,10 +1937,10 @@
         <v>32</v>
       </c>
       <c r="D35" s="34"/>
-      <c r="E35" s="51" t="s">
+      <c r="E35" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="F35" s="52"/>
+      <c r="F35" s="56"/>
     </row>
     <row r="36" spans="1:7" s="49" customFormat="1" ht="45">
       <c r="A36" s="32">
@@ -1942,10 +1956,10 @@
       <c r="D36" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E36" s="53" t="s">
+      <c r="E36" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="F36" s="54"/>
+      <c r="F36" s="62"/>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7" ht="15">
@@ -2001,7 +2015,7 @@
     </row>
     <row r="40" spans="1:7" ht="15">
       <c r="A40" s="32">
-        <f t="shared" ref="A40:A48" si="1">A38+1</f>
+        <f t="shared" ref="A40:A49" si="1">A38+1</f>
         <v>12</v>
       </c>
       <c r="B40" s="33" t="s">
@@ -2042,16 +2056,16 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B42" s="62" t="s">
+      <c r="B42" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="63" t="s">
+      <c r="C42" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="64" t="s">
+      <c r="D42" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="E42" s="63" t="s">
+      <c r="E42" s="52" t="s">
         <v>78</v>
       </c>
       <c r="F42" s="46"/>
@@ -2159,15 +2173,44 @@
       <c r="F48" s="36"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="24"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="39"/>
+      <c r="A49" s="32">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="F49" s="36"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="24"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="B25:B26"/>
@@ -2175,20 +2218,10 @@
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E30:F30"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D65" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D66" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/program/BlancoRestGeneratorKtTelegramFieldStructure.xlsx
+++ b/meta/program/BlancoRestGeneratorKtTelegramFieldStructure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/vscode/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D0681B-CE5D-7A4E-B828-E669F92204DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B47BC36-33F6-E146-9044-6B48385ABA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5320" yWindow="4300" windowWidth="28800" windowHeight="17540" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12060" yWindow="2860" windowWidth="28800" windowHeight="17540" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valueObject" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="87">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -480,6 +480,49 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t xml:space="preserve">フヨスル </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>alias</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>JSON/クエリのプロパティ名として用いる文字列</t>
+    <rPh sb="18" eb="19">
+      <t xml:space="preserve">モチイル </t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t xml:space="preserve">モジレツ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>queryKind</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>プロパティ名の取得元種別。path/query が明示されていない場合は、GET/DELETE では query。POST/PUTでは JSON プロパティを期待する。</t>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">メイ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">シュトク </t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">モト </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">シュベツ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">メイジ </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">バアイハ </t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t xml:space="preserve">キタイスル </t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -896,20 +939,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -931,12 +974,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -997,7 +1038,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1006,10 +1047,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1025,50 +1066,53 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1461,7 +1505,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1505,7 +1549,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1530,10 +1574,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1664,11 +1708,11 @@
       <c r="F13"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
@@ -1689,11 +1733,11 @@
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="4" t="s">
@@ -1706,7 +1750,7 @@
       <c r="F18"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="57" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="58" t="s">
@@ -1718,7 +1762,7 @@
       <c r="F19"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="54"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="58"/>
       <c r="C20" s="59"/>
       <c r="D20" s="59"/>
@@ -1726,27 +1770,27 @@
       <c r="F20"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
       <c r="F21"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25"/>
       <c r="F22"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="4" t="s">
@@ -1759,458 +1803,484 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="57" t="s">
+      <c r="D25" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="57" t="s">
+      <c r="E25" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="28"/>
+      <c r="F25" s="26"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="29"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="27"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="20">
+      <c r="A27" s="18">
         <v>1</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21" t="s">
+      <c r="D27" s="19"/>
+      <c r="E27" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="31"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="32">
+      <c r="A28" s="30">
         <f>A27+1</f>
         <v>2</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="35" t="s">
+      <c r="D28" s="32"/>
+      <c r="E28" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="36"/>
+      <c r="F28" s="34"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="32">
+      <c r="A29" s="30">
         <f t="shared" ref="A29:A37" si="0">A28+1</f>
         <v>3</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34" t="s">
+      <c r="D29" s="32"/>
+      <c r="E29" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="36"/>
-    </row>
-    <row r="30" spans="1:7" s="49" customFormat="1" ht="45">
-      <c r="A30" s="32">
+      <c r="F29" s="34"/>
+    </row>
+    <row r="30" spans="1:7" s="47" customFormat="1" ht="45">
+      <c r="A30" s="30">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="48" t="s">
+      <c r="C30" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="48" t="s">
+      <c r="D30" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="63" t="s">
+      <c r="E30" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="F30" s="64"/>
+      <c r="F30" s="56"/>
       <c r="G30"/>
     </row>
     <row r="31" spans="1:7" ht="29" customHeight="1">
-      <c r="A31" s="32">
+      <c r="A31" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="55" t="s">
+      <c r="D31" s="32"/>
+      <c r="E31" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="56"/>
+      <c r="F31" s="52"/>
     </row>
     <row r="32" spans="1:7" ht="29" customHeight="1">
-      <c r="A32" s="32">
+      <c r="A32" s="30">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="55" t="s">
+      <c r="D32" s="32"/>
+      <c r="E32" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="F32" s="56"/>
-    </row>
-    <row r="33" spans="1:7" s="49" customFormat="1" ht="45">
-      <c r="A33" s="32">
+      <c r="F32" s="52"/>
+    </row>
+    <row r="33" spans="1:7" s="47" customFormat="1" ht="45">
+      <c r="A33" s="30">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="48" t="s">
+      <c r="C33" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="48" t="s">
+      <c r="D33" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="61" t="s">
+      <c r="E33" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="F33" s="62"/>
+      <c r="F33" s="54"/>
       <c r="G33"/>
     </row>
     <row r="34" spans="1:7" ht="29" customHeight="1">
-      <c r="A34" s="32">
+      <c r="A34" s="30">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="55" t="s">
+      <c r="D34" s="32"/>
+      <c r="E34" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="F34" s="56"/>
+      <c r="F34" s="52"/>
     </row>
     <row r="35" spans="1:7" ht="29" customHeight="1">
-      <c r="A35" s="32">
+      <c r="A35" s="30">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="55" t="s">
+      <c r="D35" s="32"/>
+      <c r="E35" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="F35" s="56"/>
-    </row>
-    <row r="36" spans="1:7" s="49" customFormat="1" ht="45">
-      <c r="A36" s="32">
+      <c r="F35" s="52"/>
+    </row>
+    <row r="36" spans="1:7" s="47" customFormat="1" ht="45">
+      <c r="A36" s="30">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B36" s="47" t="s">
+      <c r="B36" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="48" t="s">
+      <c r="C36" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="48" t="s">
+      <c r="D36" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="E36" s="61" t="s">
+      <c r="E36" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="F36" s="62"/>
+      <c r="F36" s="54"/>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7" ht="15">
-      <c r="A37" s="32">
+      <c r="A37" s="30">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="34"/>
-      <c r="E37" s="37" t="s">
+      <c r="D37" s="32"/>
+      <c r="E37" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="F37" s="46"/>
+      <c r="F37" s="44"/>
     </row>
     <row r="38" spans="1:7" ht="15">
-      <c r="A38" s="32">
+      <c r="A38" s="30">
         <f>A36+1</f>
         <v>11</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="34"/>
-      <c r="E38" s="50" t="s">
+      <c r="D38" s="32"/>
+      <c r="E38" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="F38" s="46"/>
+      <c r="F38" s="44"/>
     </row>
     <row r="39" spans="1:7" ht="15">
-      <c r="A39" s="32">
+      <c r="A39" s="30">
         <f>A37+1</f>
         <v>12</v>
       </c>
-      <c r="B39" s="33" t="s">
+      <c r="B39" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="34"/>
-      <c r="E39" s="37" t="s">
+      <c r="D39" s="32"/>
+      <c r="E39" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="F39" s="46"/>
-    </row>
-    <row r="40" spans="1:7" ht="15">
-      <c r="A40" s="32">
-        <f t="shared" ref="A40:A49" si="1">A38+1</f>
+      <c r="F39" s="44"/>
+    </row>
+    <row r="40" spans="1:7" ht="30" customHeight="1">
+      <c r="A40" s="30">
+        <f>A38+1</f>
         <v>12</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="32"/>
+      <c r="E40" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" s="63"/>
+    </row>
+    <row r="41" spans="1:7" ht="48" customHeight="1">
+      <c r="A41" s="30">
+        <f>A39+1</f>
+        <v>13</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="32"/>
+      <c r="E41" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="F41" s="63"/>
+    </row>
+    <row r="42" spans="1:7" ht="15">
+      <c r="A42" s="30">
+        <f>A38+1</f>
+        <v>12</v>
+      </c>
+      <c r="B42" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C42" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="34" t="b">
+      <c r="D42" s="32" t="b">
         <v>0</v>
       </c>
-      <c r="E40" s="50" t="s">
+      <c r="E42" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="F40" s="46"/>
-    </row>
-    <row r="41" spans="1:7" ht="15">
-      <c r="A41" s="32">
-        <f t="shared" si="1"/>
+      <c r="F42" s="44"/>
+    </row>
+    <row r="43" spans="1:7" ht="15">
+      <c r="A43" s="30">
+        <f>A39+1</f>
         <v>13</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="B43" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="34" t="s">
+      <c r="C43" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="34" t="b">
+      <c r="D43" s="32" t="b">
         <v>0</v>
       </c>
-      <c r="E41" s="50" t="s">
+      <c r="E43" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="F41" s="46"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="32">
-        <f t="shared" si="1"/>
+      <c r="F43" s="44"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="30">
+        <f t="shared" ref="A44:A51" si="1">A42+1</f>
         <v>13</v>
       </c>
-      <c r="B42" s="51" t="s">
+      <c r="B44" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="52" t="s">
+      <c r="C44" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="53" t="s">
+      <c r="D44" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="E42" s="52" t="s">
+      <c r="E44" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="F42" s="46"/>
-    </row>
-    <row r="43" spans="1:7" ht="15">
-      <c r="A43" s="32">
+      <c r="F44" s="44"/>
+    </row>
+    <row r="45" spans="1:7" ht="15">
+      <c r="A45" s="30">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B43" s="33" t="s">
+      <c r="B45" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="34" t="s">
+      <c r="C45" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="34"/>
-      <c r="E43" s="37" t="s">
+      <c r="D45" s="32"/>
+      <c r="E45" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F43" s="46"/>
-    </row>
-    <row r="44" spans="1:7" ht="15">
-      <c r="A44" s="32">
+      <c r="F45" s="44"/>
+    </row>
+    <row r="46" spans="1:7" ht="15">
+      <c r="A46" s="30">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B44" s="33" t="s">
+      <c r="B46" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="C46" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="37" t="s">
+      <c r="D46" s="32"/>
+      <c r="E46" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F44" s="46"/>
-    </row>
-    <row r="45" spans="1:7" ht="15">
-      <c r="A45" s="32">
+      <c r="F46" s="44"/>
+    </row>
+    <row r="47" spans="1:7" ht="15">
+      <c r="A47" s="30">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B45" s="33" t="s">
+      <c r="B47" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="34" t="s">
+      <c r="C47" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="34"/>
-      <c r="E45" s="37" t="s">
+      <c r="D47" s="32"/>
+      <c r="E47" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F45" s="46"/>
-    </row>
-    <row r="46" spans="1:7" ht="15">
-      <c r="A46" s="32">
+      <c r="F47" s="44"/>
+    </row>
+    <row r="48" spans="1:7" ht="15">
+      <c r="A48" s="30">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B46" s="33" t="s">
+      <c r="B48" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C48" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="34"/>
-      <c r="E46" s="37" t="s">
+      <c r="D48" s="32"/>
+      <c r="E48" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F46" s="46"/>
-    </row>
-    <row r="47" spans="1:7" ht="15">
-      <c r="A47" s="32">
+      <c r="F48" s="44"/>
+    </row>
+    <row r="49" spans="1:6" ht="15">
+      <c r="A49" s="30">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B49" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="C49" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D47" s="34"/>
-      <c r="E47" s="37" t="s">
+      <c r="D49" s="32"/>
+      <c r="E49" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="F47" s="46"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="32">
+      <c r="F49" s="44"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="30">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B48" s="33" t="s">
+      <c r="B50" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C50" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34" t="s">
+      <c r="D50" s="32"/>
+      <c r="E50" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="F48" s="36"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="32">
+      <c r="F50" s="34"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="30">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B51" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="C51" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D49" s="34" t="b">
+      <c r="D51" s="32" t="b">
         <v>0</v>
       </c>
-      <c r="E49" s="34" t="s">
+      <c r="E51" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="F49" s="36"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="24"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="39"/>
+      <c r="F51" s="34"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="22"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
+  <mergeCells count="19">
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="B25:B26"/>
@@ -2218,10 +2288,20 @@
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E30:F30"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D66" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations disablePrompts="1" count="6">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D68" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2289,48 +2369,48 @@
       <c r="M1" s="3"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="40" t="s">
+      <c r="J3" s="38" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="41"/>
-      <c r="D4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="J4" s="42"/>
+      <c r="B4" s="39"/>
+      <c r="D4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="J4" s="40"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="44" t="s">
+      <c r="J5" s="42" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="B6" s="45"/>
+      <c r="B6" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
